--- a/results/overview/summary_all_ACC.xlsx
+++ b/results/overview/summary_all_ACC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,251 +441,633 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lidl</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>hotel</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reddit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>drugs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>office_products</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>ikea_reviews</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>musical_instruments</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>instant_video</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>twitter</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>luxury_beauty</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>patio_lawn_garden</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>luxury_beauty</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>reddit</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>instant_video</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lidl</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>hotel</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>musical_instruments</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>office_products</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>drugs</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>siebert</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.38</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+        <v>76.15000000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.85</v>
+      </c>
+      <c r="E2" t="n">
+        <v>78.45999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="G2" t="n">
+        <v>74.45</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>75.78</v>
+      </c>
+      <c r="J2" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="K2" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="L2" t="n">
+        <v>79.97</v>
+      </c>
+      <c r="M2" t="n">
+        <v>67.90000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ComplementNB</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.1</v>
+        <v>66.87</v>
       </c>
       <c r="C3" t="n">
-        <v>69.36</v>
+        <v>69.63</v>
       </c>
       <c r="D3" t="n">
-        <v>78.95999999999999</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>52.92</v>
+        <v>73.67</v>
       </c>
       <c r="F3" t="n">
-        <v>66.97</v>
+        <v>44.63</v>
       </c>
       <c r="G3" t="n">
-        <v>71.93000000000001</v>
+        <v>63.71</v>
       </c>
       <c r="H3" t="n">
-        <v>58.62</v>
+        <v>72.05</v>
       </c>
       <c r="I3" t="n">
-        <v>66.68000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="J3" t="n">
-        <v>53.35</v>
+        <v>61.98</v>
       </c>
       <c r="K3" t="n">
-        <v>58.14</v>
+        <v>79.44</v>
       </c>
       <c r="L3" t="n">
-        <v>58.85</v>
+        <v>73.83</v>
       </c>
       <c r="M3" t="n">
-        <v>41.18</v>
+        <v>55.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>few_shot_gpt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.29</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>63.01</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>68.98999999999999</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
-        <v>44.1</v>
+        <v>37.5</v>
       </c>
       <c r="F4" t="n">
-        <v>64.93000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="G4" t="n">
-        <v>63.73</v>
+        <v>38</v>
       </c>
       <c r="H4" t="n">
-        <v>47.12</v>
+        <v>43.5</v>
       </c>
       <c r="I4" t="n">
-        <v>60.46</v>
+        <v>33.5</v>
       </c>
       <c r="J4" t="n">
-        <v>40.95</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87</v>
+        <v>65.66</v>
       </c>
       <c r="L4" t="n">
-        <v>48.06</v>
+        <v>30.5</v>
       </c>
       <c r="M4" t="n">
-        <v>34.38</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>nlptown</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.38</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>74.42</v>
+      </c>
+      <c r="C5" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61</v>
+      </c>
+      <c r="E5" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45.41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>71.28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="I5" t="n">
+        <v>76.22</v>
+      </c>
+      <c r="J5" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>81.48999999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>75.92</v>
+      </c>
+      <c r="M5" t="n">
+        <v>66.47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MultinomialNB</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.02</v>
+        <v>71.17</v>
       </c>
       <c r="C6" t="n">
-        <v>73.79000000000001</v>
+        <v>73.52</v>
       </c>
       <c r="D6" t="n">
-        <v>75.98999999999999</v>
+        <v>60.7</v>
       </c>
       <c r="E6" t="n">
-        <v>53.87</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>67.34</v>
+        <v>45.84</v>
       </c>
       <c r="G6" t="n">
-        <v>73.13</v>
+        <v>65.67</v>
       </c>
       <c r="H6" t="n">
-        <v>57.61</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>68.75</v>
+        <v>69.83</v>
       </c>
       <c r="J6" t="n">
-        <v>52.6</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>65.59</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>57.37</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>41.69</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.38</v>
+      </c>
+      <c r="C7" t="n">
+        <v>62.65</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>68.44</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="I7" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="J7" t="n">
+        <v>56.81</v>
+      </c>
+      <c r="K7" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>63.46</v>
+      </c>
+      <c r="M7" t="n">
+        <v>53.26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>distilbert</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="C8" t="n">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>62.53</v>
+      </c>
+      <c r="H8" t="n">
+        <v>73.73999999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="J8" t="n">
+        <v>60.97</v>
+      </c>
+      <c r="K8" t="n">
+        <v>82.45</v>
+      </c>
+      <c r="L8" t="n">
+        <v>65.92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>57.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>64.26000000000001</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ComplementNB</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>53.35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="G10" t="n">
+        <v>58.85</v>
+      </c>
+      <c r="H10" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="I10" t="n">
+        <v>58.14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>58.62</v>
+      </c>
+      <c r="K10" t="n">
+        <v>78.95999999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="M10" t="n">
+        <v>52.92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>57.29</v>
+      </c>
+      <c r="C11" t="n">
+        <v>60.46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="E11" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="F11" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="G11" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>63.01</v>
+      </c>
+      <c r="I11" t="n">
+        <v>56.87</v>
+      </c>
+      <c r="J11" t="n">
+        <v>47.12</v>
+      </c>
+      <c r="K11" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>64.93000000000001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>setfit</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>43</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45</v>
+      </c>
+      <c r="H12" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>33</v>
+      </c>
+      <c r="K12" t="n">
+        <v>73.73999999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>63.38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>69.92</v>
+      </c>
+      <c r="D13" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74.05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>43.04</v>
+      </c>
+      <c r="G13" t="n">
+        <v>62.66</v>
+      </c>
+      <c r="H13" t="n">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>61.38</v>
+      </c>
+      <c r="K13" t="n">
+        <v>81.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>74.08</v>
+      </c>
+      <c r="M13" t="n">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>MultinomialNB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="C14" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>73.13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="G14" t="n">
+        <v>57.37</v>
+      </c>
+      <c r="H14" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>65.59</v>
+      </c>
+      <c r="J14" t="n">
+        <v>57.61</v>
+      </c>
+      <c r="K14" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>67.34</v>
+      </c>
+      <c r="M14" t="n">
+        <v>53.87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>70.88</v>
+      </c>
+      <c r="D15" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>49.76</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>73.01000000000001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>61.74</v>
+      </c>
+      <c r="J15" t="n">
+        <v>62.01</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>75.73</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
